--- a/biology/Botanique/Pulmonaire_semblable/Pulmonaire_semblable.xlsx
+++ b/biology/Botanique/Pulmonaire_semblable/Pulmonaire_semblable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulmonaria affinis
 La pulmonaire semblable (Pulmonaria affinis) est une espèce de plante herbacée appartenant à la famille des Boraginaceae et au genre Pulmonaria. Comme d'autres espèces du même genre, on la reconnaît d'abord à ses feuilles vertes maculées de blanc et à ses petites fleurs en entonnoir, qui passent du rose au bleu à mesure qu'elles se développent. Assez localisée, on la rencontre dans les Pyrénées et le Massif central, plus rarement dans les Alpes méridionales, l'extrême limite septentrionale de son aire de répartition étant le sud du département de la Haute-Marne.
@@ -512,9 +524,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pulmonaria auquel elle appartient est appelé ainsi en raison des tâches blanches marbrant ses feuilles, rappelant un poumon malade[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pulmonaria auquel elle appartient est appelé ainsi en raison des tâches blanches marbrant ses feuilles, rappelant un poumon malade.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles pubescentes sont marbrées de blanc. Celles de la base se développent en été, sont deux à quatre fois plus longues que larges et sont aiguës au sommet. Les limbes se situant le long de la tige sont ovales-aiguës, plus ou moins arrondies inférieurement. Les fruits mûrs sont gris[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles pubescentes sont marbrées de blanc. Celles de la base se développent en été, sont deux à quatre fois plus longues que larges et sont aiguës au sommet. Les limbes se situant le long de la tige sont ovales-aiguës, plus ou moins arrondies inférieurement. Les fruits mûrs sont gris.
 </t>
         </is>
       </c>
